--- a/threshold_ac/output_without0.xlsx
+++ b/threshold_ac/output_without0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxu/PycharmProjects/Academic_Tools/threshold_ac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F65B28-A38E-AC4B-B460-598BF0AB860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DF8F2-5965-294D-91B6-E939693ECEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1447,10 +1447,13 @@
   <dimension ref="A1:D7337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
